--- a/education/education-provider/src/main/webapp/templates/供货者.xlsx
+++ b/education/education-provider/src/main/webapp/templates/供货者.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="19440" windowHeight="11100"/>
   </bookViews>
   <sheets>
-    <sheet name="供货商" sheetId="1" r:id="rId1"/>
+    <sheet name="供货者" sheetId="1" r:id="rId1"/>
     <sheet name="导入说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -29,7 +29,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">提供者不能重名。必填项</t>
+          <t xml:space="preserve">供货者不能重名。必填项</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">必填项</t>
+          <t xml:space="preserve">供货者的地址。   必填项</t>
         </r>
       </text>
     </comment>
@@ -55,8 +55,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">填写证件号码，五证必须填写一个证件
-</t>
+          <t xml:space="preserve">填写证件号码，食品流通许可证、食品生产许可证，两证必填一项。</t>
         </r>
       </text>
     </comment>
@@ -69,7 +68,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">填写证件号码，五证必须填写一个证件</t>
+          <t xml:space="preserve">填写证件号码，食品流通许可证、食品生产许可证，两证必填一项。</t>
         </r>
       </text>
     </comment>
@@ -82,7 +81,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">提供者直接联系人</t>
+          <t xml:space="preserve">供货者直接联系人</t>
         </r>
       </text>
     </comment>
@@ -104,12 +103,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
-  <si>
-    <t>提供者名称</t>
-  </si>
-  <si>
-    <t>提供者地址</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+  <si>
+    <t>供货者名称</t>
+  </si>
+  <si>
+    <t>供货者地址</t>
   </si>
   <si>
     <t>食品流通证号</t>
@@ -121,7 +120,7 @@
     <t>联系人</t>
   </si>
   <si>
-    <t>电话</t>
+    <t>手机</t>
   </si>
   <si>
     <t>双汇食品有限公司</t>
@@ -179,16 +178,22 @@
     </r>
   </si>
   <si>
-    <t>提供者不能重名。必填项</t>
-  </si>
-  <si>
-    <t>必填项</t>
+    <t>供货商名称</t>
+  </si>
+  <si>
+    <t>供货者不能重名。    必填项</t>
+  </si>
+  <si>
+    <t>供货商地址</t>
+  </si>
+  <si>
+    <t>供货者地址。        必填项</t>
   </si>
   <si>
     <t>食品流通证号：</t>
   </si>
   <si>
-    <t>填写证件号码，号码为字母数字。五证必填一证</t>
+    <t xml:space="preserve">      填写证件号码，两证必填一项</t>
   </si>
   <si>
     <t>食品生产证号：</t>
@@ -211,12 +216,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +239,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -248,6 +260,20 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -256,6 +282,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -263,6 +296,127 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,127 +431,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -418,37 +451,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,145 +607,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,45 +642,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -666,22 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,176 +698,226 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -887,13 +926,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1408,79 +1450,79 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="8"/>
-    <col min="4" max="4" width="18.25" style="8"/>
-    <col min="5" max="5" width="9" style="8"/>
-    <col min="6" max="6" width="12.625" style="8"/>
+    <col min="1" max="1" width="25.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="10"/>
+    <col min="4" max="4" width="18.25" style="10"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="12.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="4" customFormat="1" ht="36.75" customHeight="1" spans="1:9">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1498,7 +1540,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1515,77 +1557,77 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
